--- a/UI/Game/ImageArray.xlsx
+++ b/UI/Game/ImageArray.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2016027\Desktop\ゲーム開発\git2016027\03後期\UI\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\2016008\Desktop\AGSSummer\UI\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B165942D-D877-40D0-8180-845876029C57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D95DC10-E8BA-4B0E-9B22-B0F5D9E8ABF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7500" xr2:uid="{97538E6E-7C82-46A8-9043-7790F99FCB4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7500" xr2:uid="{97538E6E-7C82-46A8-9043-7790F99FCB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>imageName</t>
     <phoneticPr fontId="1"/>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>Resource/resource/Ui/playerGaugeIcon.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -523,19 +519,19 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.25" customWidth="1"/>
-    <col min="2" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.19921875" customWidth="1"/>
+    <col min="2" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -569,22 +565,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
